--- a/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761024964899_6e715ac8de8a3a59eba0f6f23a36135970fb0e677e88f47c783b5b89f3974155.xlsx
+++ b/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761024964899_6e715ac8de8a3a59eba0f6f23a36135970fb0e677e88f47c783b5b89f3974155.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Pathology_Lab_Museum" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761024964899_6e715ac8de8a3a59eba0f6f23a36135970fb0e677e88f47c783b5b89f3974155.xlsx
+++ b/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761024964899_6e715ac8de8a3a59eba0f6f23a36135970fb0e677e88f47c783b5b89f3974155.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pathology_Lab_Museum" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
